--- a/data/bp_acv.xlsx
+++ b/data/bp_acv.xlsx
@@ -14,24 +14,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Algorithm</t>
   </si>
   <si>
-    <t>One Year Base</t>
-  </si>
-  <si>
-    <t>Two Year Base</t>
-  </si>
-  <si>
-    <t>Three Year Base</t>
-  </si>
-  <si>
-    <t>Five Year Base</t>
-  </si>
-  <si>
-    <t>Ten Year Base</t>
+    <t>One Year Base mean</t>
+  </si>
+  <si>
+    <t>One Year Base std</t>
+  </si>
+  <si>
+    <t>Two Year Base mean</t>
+  </si>
+  <si>
+    <t>Two Year Base std</t>
+  </si>
+  <si>
+    <t>Three Year Base mean</t>
+  </si>
+  <si>
+    <t>Three Year Base std</t>
+  </si>
+  <si>
+    <t>Five Year Base mean</t>
+  </si>
+  <si>
+    <t>Five Year Base std</t>
+  </si>
+  <si>
+    <t>Ten Year Base mean</t>
+  </si>
+  <si>
+    <t>Ten Year Base std</t>
   </si>
   <si>
     <t>LR</t>
@@ -43,16 +58,13 @@
     <t>KNN</t>
   </si>
   <si>
-    <t>CART</t>
+    <t>DTREE</t>
   </si>
   <si>
     <t>RTREE</t>
   </si>
   <si>
     <t>XTREE</t>
-  </si>
-  <si>
-    <t>NB</t>
   </si>
   <si>
     <t>SVM</t>
@@ -413,13 +425,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,189 +450,286 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C2">
-        <v>0.8927460014020637</v>
+        <v>0.9118301951749158</v>
       </c>
       <c r="D2">
-        <v>0.8855395503746877</v>
+        <v>0.009018271541097652</v>
       </c>
       <c r="E2">
-        <v>0.8753673292999137</v>
+        <v>0.8983306931030371</v>
       </c>
       <c r="F2">
-        <v>0.8671284588601795</v>
+        <v>0.005063791703037574</v>
       </c>
       <c r="G2">
-        <v>0.8479371607578707</v>
+        <v>0.8906387395441685</v>
+      </c>
+      <c r="H2">
+        <v>0.01120332276323281</v>
+      </c>
+      <c r="I2">
+        <v>0.8746928166351606</v>
+      </c>
+      <c r="J2">
+        <v>0.01840794193848852</v>
+      </c>
+      <c r="K2">
+        <v>0.8561271349394864</v>
+      </c>
+      <c r="L2">
+        <v>0.01601016145821086</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C3">
-        <v>0.8623552343283158</v>
+        <v>0.9154095495352348</v>
       </c>
       <c r="D3">
-        <v>0.8502202331390508</v>
+        <v>0.009837407096394782</v>
       </c>
       <c r="E3">
-        <v>0.8411408815903197</v>
+        <v>0.9035580651938157</v>
       </c>
       <c r="F3">
-        <v>0.8433929334973864</v>
+        <v>0.009286384141093978</v>
       </c>
       <c r="G3">
-        <v>0.8376277691904314</v>
+        <v>0.8895897884952175</v>
+      </c>
+      <c r="H3">
+        <v>0.01067034765304147</v>
+      </c>
+      <c r="I3">
+        <v>0.8765860399839605</v>
+      </c>
+      <c r="J3">
+        <v>0.01721737714708205</v>
+      </c>
+      <c r="K3">
+        <v>0.8644553783508652</v>
+      </c>
+      <c r="L3">
+        <v>0.01438732554179628</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C4">
-        <v>0.8908164822685496</v>
+        <v>0.9007669288419269</v>
       </c>
       <c r="D4">
-        <v>0.8860396891479322</v>
+        <v>0.008008831983432128</v>
       </c>
       <c r="E4">
-        <v>0.8800345721694036</v>
+        <v>0.8861927311337091</v>
       </c>
       <c r="F4">
-        <v>0.8848809305653725</v>
+        <v>0.005520331869793017</v>
       </c>
       <c r="G4">
-        <v>0.8612937943228335</v>
+        <v>0.8878338824048105</v>
+      </c>
+      <c r="H4">
+        <v>0.01126996757370534</v>
+      </c>
+      <c r="I4">
+        <v>0.8820748840006873</v>
+      </c>
+      <c r="J4">
+        <v>0.01292487365709362</v>
+      </c>
+      <c r="K4">
+        <v>0.865883384232553</v>
+      </c>
+      <c r="L4">
+        <v>0.01159807445734856</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C5">
-        <v>0.8617108540948279</v>
+        <v>0.867581367018882</v>
       </c>
       <c r="D5">
-        <v>0.8572145434360255</v>
+        <v>0.01281728093558956</v>
       </c>
       <c r="E5">
-        <v>0.8539325842696629</v>
+        <v>0.8691626779316494</v>
       </c>
       <c r="F5">
-        <v>0.8465731214604222</v>
+        <v>0.01275134323166882</v>
       </c>
       <c r="G5">
-        <v>0.8455982604446082</v>
+        <v>0.8589623161427016</v>
+      </c>
+      <c r="H5">
+        <v>0.0145507900168874</v>
+      </c>
+      <c r="I5">
+        <v>0.8642743598556454</v>
+      </c>
+      <c r="J5">
+        <v>0.01972834541350371</v>
+      </c>
+      <c r="K5">
+        <v>0.8508901707951588</v>
+      </c>
+      <c r="L5">
+        <v>0.01907601546982548</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C6">
-        <v>0.7562302592265886</v>
+        <v>0.8340626572389503</v>
       </c>
       <c r="D6">
-        <v>0.7554156258673327</v>
+        <v>0.0194712610433196</v>
       </c>
       <c r="E6">
-        <v>0.7490060501296456</v>
+        <v>0.8260022938775047</v>
       </c>
       <c r="F6">
-        <v>0.7484586856549474</v>
+        <v>0.01609607248018595</v>
       </c>
       <c r="G6">
-        <v>0.7497664943401303</v>
+        <v>0.813818843153344</v>
+      </c>
+      <c r="H6">
+        <v>0.01203607874688118</v>
+      </c>
+      <c r="I6">
+        <v>0.803332474079166</v>
+      </c>
+      <c r="J6">
+        <v>0.01481176654405744</v>
+      </c>
+      <c r="K6">
+        <v>0.7733785770840403</v>
+      </c>
+      <c r="L6">
+        <v>0.0261286162292894</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C7">
-        <v>0.7758489340952421</v>
+        <v>0.9054844945843594</v>
       </c>
       <c r="D7">
-        <v>0.7865753538717735</v>
+        <v>0.008474319486313052</v>
       </c>
       <c r="E7">
-        <v>0.7675021607605876</v>
+        <v>0.8944535291078294</v>
       </c>
       <c r="F7">
-        <v>0.7643423475309127</v>
+        <v>0.009048054767116644</v>
       </c>
       <c r="G7">
-        <v>0.7619562859833457</v>
+        <v>0.8853869423046306</v>
+      </c>
+      <c r="H7">
+        <v>0.01508821670337607</v>
+      </c>
+      <c r="I7">
+        <v>0.8811304204617059</v>
+      </c>
+      <c r="J7">
+        <v>0.0149336883252537</v>
+      </c>
+      <c r="K7">
+        <v>0.8611265693926026</v>
+      </c>
+      <c r="L7">
+        <v>0.01496201866110236</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C8">
-        <v>0.8231251277249058</v>
+        <v>0.9092283043351607</v>
       </c>
       <c r="D8">
-        <v>0.8347227310574523</v>
+        <v>0.008860528125732445</v>
       </c>
       <c r="E8">
-        <v>0.8255834053586864</v>
+        <v>0.9001865194951199</v>
       </c>
       <c r="F8">
-        <v>0.8123713535258339</v>
+        <v>0.007404630607133845</v>
       </c>
       <c r="G8">
-        <v>0.8003755858232825</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9">
-        <v>0.89933828798183</v>
-      </c>
-      <c r="D9">
-        <v>0.8955370524562865</v>
-      </c>
-      <c r="E9">
-        <v>0.8848746758859118</v>
-      </c>
-      <c r="F9">
-        <v>0.8802085569430265</v>
-      </c>
-      <c r="G9">
-        <v>0.8638770450620623</v>
+        <v>0.8916870782457472</v>
+      </c>
+      <c r="H8">
+        <v>0.01469997657671607</v>
+      </c>
+      <c r="I8">
+        <v>0.8877581342727845</v>
+      </c>
+      <c r="J8">
+        <v>0.01686160118615514</v>
+      </c>
+      <c r="K8">
+        <v>0.8753970139124533</v>
+      </c>
+      <c r="L8">
+        <v>0.01533431647821785</v>
       </c>
     </row>
   </sheetData>
